--- a/Jogos_do_Dia/2023-06-29_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-06-29_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -151,27 +151,27 @@
     <t>21:00:00</t>
   </si>
   <si>
+    <t>Shenzhen</t>
+  </si>
+  <si>
     <t>Beijing Guoan</t>
   </si>
   <si>
     <t>Shandong Luneng</t>
   </si>
   <si>
-    <t>Shenzhen</t>
-  </si>
-  <si>
     <t>Ismaily SC</t>
   </si>
   <si>
     <t>National Bank of Egypt</t>
   </si>
   <si>
+    <t>Stjarnan</t>
+  </si>
+  <si>
     <t>Fylkir</t>
   </si>
   <si>
-    <t>Stjarnan</t>
-  </si>
-  <si>
     <t>Colo-Colo</t>
   </si>
   <si>
@@ -184,25 +184,25 @@
     <t>Barcelona</t>
   </si>
   <si>
+    <t>Chengdu Better City FC</t>
+  </si>
+  <si>
     <t>Shanghai SIPG</t>
   </si>
   <si>
     <t>Changchun Yatai</t>
   </si>
   <si>
-    <t>Chengdu Better City FC</t>
-  </si>
-  <si>
     <t>Aswan FC</t>
   </si>
   <si>
     <t>Al Ahly</t>
   </si>
   <si>
+    <t>FH</t>
+  </si>
+  <si>
     <t>Víkingur Reykjavík</t>
-  </si>
-  <si>
-    <t>FH</t>
   </si>
   <si>
     <t>Deportivo Pereira</t>
@@ -709,31 +709,31 @@
         <v>56</v>
       </c>
       <c r="G2">
-        <v>3.3</v>
+        <v>8.85</v>
       </c>
       <c r="H2">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="I2">
-        <v>2.1</v>
+        <v>1.34</v>
       </c>
       <c r="J2">
         <v>1.03</v>
       </c>
       <c r="K2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L2">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="M2">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="N2">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="O2">
-        <v>2.2</v>
+        <v>2.17</v>
       </c>
       <c r="P2">
         <v>1.3</v>
@@ -742,58 +742,58 @@
         <v>3.4</v>
       </c>
       <c r="R2">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="S2">
-        <v>2.38</v>
+        <v>1.75</v>
       </c>
       <c r="T2">
-        <v>1.75</v>
+        <v>3.28</v>
       </c>
       <c r="U2">
+        <v>1.16</v>
+      </c>
+      <c r="V2">
+        <v>1.06</v>
+      </c>
+      <c r="W2">
+        <v>1.43</v>
+      </c>
+      <c r="X2">
+        <v>1.8</v>
+      </c>
+      <c r="Y2">
         <v>1.27</v>
       </c>
-      <c r="V2">
-        <v>1.33</v>
-      </c>
-      <c r="W2">
-        <v>2</v>
-      </c>
-      <c r="X2">
-        <v>2.67</v>
-      </c>
-      <c r="Y2">
-        <v>1.81</v>
-      </c>
       <c r="Z2">
-        <v>1.52</v>
+        <v>1.29</v>
       </c>
       <c r="AA2">
-        <v>3.33</v>
+        <v>2.56</v>
       </c>
       <c r="AB2">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="AC2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AD2">
-        <v>1.91</v>
+        <v>1.22</v>
       </c>
       <c r="AE2">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AF2">
-        <v>1.49</v>
+        <v>1.72</v>
       </c>
       <c r="AG2">
-        <v>1.93</v>
+        <v>2.22</v>
       </c>
       <c r="AH2">
-        <v>2.37</v>
+        <v>3</v>
       </c>
       <c r="AI2">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -816,91 +816,91 @@
         <v>57</v>
       </c>
       <c r="G3">
-        <v>1.47</v>
+        <v>3.21</v>
       </c>
       <c r="H3">
-        <v>4.75</v>
+        <v>3.52</v>
       </c>
       <c r="I3">
-        <v>5.5</v>
+        <v>2.08</v>
       </c>
       <c r="J3">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L3">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M3">
-        <v>4.65</v>
+        <v>4.3</v>
       </c>
       <c r="N3">
+        <v>1.62</v>
+      </c>
+      <c r="O3">
+        <v>2.15</v>
+      </c>
+      <c r="P3">
+        <v>1.3</v>
+      </c>
+      <c r="Q3">
+        <v>3.4</v>
+      </c>
+      <c r="R3">
         <v>1.53</v>
       </c>
-      <c r="O3">
-        <v>2.4</v>
-      </c>
-      <c r="P3">
-        <v>1.29</v>
-      </c>
-      <c r="Q3">
-        <v>3.5</v>
-      </c>
-      <c r="R3">
-        <v>1.67</v>
-      </c>
       <c r="S3">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="T3">
-        <v>1.14</v>
+        <v>1.75</v>
       </c>
       <c r="U3">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="V3">
-        <v>2.54</v>
+        <v>1.33</v>
       </c>
       <c r="W3">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="X3">
-        <v>1.67</v>
+        <v>2.67</v>
       </c>
       <c r="Y3">
-        <v>2.05</v>
+        <v>1.81</v>
       </c>
       <c r="Z3">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="AA3">
-        <v>3.49</v>
+        <v>3.33</v>
       </c>
       <c r="AB3">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="AC3">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AD3">
-        <v>4.5</v>
+        <v>1.91</v>
       </c>
       <c r="AE3">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AF3">
-        <v>1.61</v>
+        <v>1.49</v>
       </c>
       <c r="AG3">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="AH3">
-        <v>2.77</v>
+        <v>2.37</v>
       </c>
       <c r="AI3">
-        <v>4</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -923,91 +923,91 @@
         <v>58</v>
       </c>
       <c r="G4">
-        <v>8.85</v>
+        <v>1.38</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>5.04</v>
       </c>
       <c r="I4">
-        <v>1.34</v>
+        <v>7.56</v>
       </c>
       <c r="J4">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L4">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="M4">
+        <v>4.65</v>
+      </c>
+      <c r="N4">
+        <v>1.53</v>
+      </c>
+      <c r="O4">
+        <v>2.35</v>
+      </c>
+      <c r="P4">
+        <v>1.29</v>
+      </c>
+      <c r="Q4">
+        <v>3.5</v>
+      </c>
+      <c r="R4">
+        <v>1.67</v>
+      </c>
+      <c r="S4">
+        <v>2.1</v>
+      </c>
+      <c r="T4">
+        <v>1.14</v>
+      </c>
+      <c r="U4">
+        <v>1.2</v>
+      </c>
+      <c r="V4">
+        <v>2.54</v>
+      </c>
+      <c r="W4">
+        <v>2.5</v>
+      </c>
+      <c r="X4">
+        <v>1.67</v>
+      </c>
+      <c r="Y4">
+        <v>2.05</v>
+      </c>
+      <c r="Z4">
+        <v>1.44</v>
+      </c>
+      <c r="AA4">
+        <v>3.49</v>
+      </c>
+      <c r="AB4">
+        <v>1.25</v>
+      </c>
+      <c r="AC4">
+        <v>9.5</v>
+      </c>
+      <c r="AD4">
+        <v>4.5</v>
+      </c>
+      <c r="AE4">
+        <v>1.32</v>
+      </c>
+      <c r="AF4">
+        <v>1.61</v>
+      </c>
+      <c r="AG4">
+        <v>2.1</v>
+      </c>
+      <c r="AH4">
+        <v>2.77</v>
+      </c>
+      <c r="AI4">
         <v>4</v>
-      </c>
-      <c r="N4">
-        <v>1.69</v>
-      </c>
-      <c r="O4">
-        <v>2.17</v>
-      </c>
-      <c r="P4">
-        <v>1.3</v>
-      </c>
-      <c r="Q4">
-        <v>3.4</v>
-      </c>
-      <c r="R4">
-        <v>2</v>
-      </c>
-      <c r="S4">
-        <v>1.75</v>
-      </c>
-      <c r="T4">
-        <v>3.28</v>
-      </c>
-      <c r="U4">
-        <v>1.16</v>
-      </c>
-      <c r="V4">
-        <v>1.06</v>
-      </c>
-      <c r="W4">
-        <v>1.43</v>
-      </c>
-      <c r="X4">
-        <v>1.8</v>
-      </c>
-      <c r="Y4">
-        <v>1.27</v>
-      </c>
-      <c r="Z4">
-        <v>1.29</v>
-      </c>
-      <c r="AA4">
-        <v>2.56</v>
-      </c>
-      <c r="AB4">
-        <v>5</v>
-      </c>
-      <c r="AC4">
-        <v>10</v>
-      </c>
-      <c r="AD4">
-        <v>1.22</v>
-      </c>
-      <c r="AE4">
-        <v>1.36</v>
-      </c>
-      <c r="AF4">
-        <v>1.72</v>
-      </c>
-      <c r="AG4">
-        <v>2.22</v>
-      </c>
-      <c r="AH4">
-        <v>3</v>
-      </c>
-      <c r="AI4">
-        <v>4.1</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -1030,13 +1030,13 @@
         <v>59</v>
       </c>
       <c r="G5">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H5">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="I5">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="J5">
         <v>1.07</v>
@@ -1045,16 +1045,16 @@
         <v>6.15</v>
       </c>
       <c r="L5">
+        <v>1.52</v>
+      </c>
+      <c r="M5">
+        <v>2.42</v>
+      </c>
+      <c r="N5">
+        <v>2.26</v>
+      </c>
+      <c r="O5">
         <v>1.48</v>
-      </c>
-      <c r="M5">
-        <v>2.48</v>
-      </c>
-      <c r="N5">
-        <v>2.5</v>
-      </c>
-      <c r="O5">
-        <v>1.5</v>
       </c>
       <c r="P5">
         <v>1.55</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AI5">
         <v>0</v>
@@ -1137,13 +1137,13 @@
         <v>60</v>
       </c>
       <c r="G6">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I6">
-        <v>1.55</v>
+        <v>1.46</v>
       </c>
       <c r="J6">
         <v>1.02</v>
@@ -1158,10 +1158,10 @@
         <v>3.2</v>
       </c>
       <c r="N6">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="O6">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="P6">
         <v>1.4</v>
@@ -1244,76 +1244,76 @@
         <v>61</v>
       </c>
       <c r="G7">
-        <v>4.55</v>
+        <v>2.55</v>
       </c>
       <c r="H7">
-        <v>4.25</v>
+        <v>3.4</v>
       </c>
       <c r="I7">
-        <v>1.62</v>
+        <v>2.43</v>
       </c>
       <c r="J7">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K7">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="L7">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="M7">
-        <v>5.5</v>
+        <v>4.35</v>
       </c>
       <c r="N7">
-        <v>1.47</v>
+        <v>1.61</v>
       </c>
       <c r="O7">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="P7">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="Q7">
-        <v>4.05</v>
+        <v>3.42</v>
       </c>
       <c r="R7">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="S7">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="T7">
-        <v>2.54</v>
+        <v>1.38</v>
       </c>
       <c r="U7">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="V7">
-        <v>1.15</v>
+        <v>1.68</v>
       </c>
       <c r="W7">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="X7">
-        <v>2.6</v>
+        <v>0.83</v>
       </c>
       <c r="Y7">
-        <v>1.33</v>
+        <v>1.84</v>
       </c>
       <c r="Z7">
-        <v>1.93</v>
+        <v>1.53</v>
       </c>
       <c r="AA7">
-        <v>3.26</v>
+        <v>3.37</v>
       </c>
       <c r="AB7">
-        <v>3.68</v>
+        <v>1.75</v>
       </c>
       <c r="AC7">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AD7">
-        <v>1.37</v>
+        <v>2.41</v>
       </c>
       <c r="AE7">
         <v>0</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1351,76 +1351,76 @@
         <v>62</v>
       </c>
       <c r="G8">
+        <v>4.8</v>
+      </c>
+      <c r="H8">
+        <v>4.4</v>
+      </c>
+      <c r="I8">
+        <v>1.57</v>
+      </c>
+      <c r="J8">
+        <v>1.01</v>
+      </c>
+      <c r="K8">
+        <v>16.5</v>
+      </c>
+      <c r="L8">
+        <v>1.11</v>
+      </c>
+      <c r="M8">
+        <v>5.5</v>
+      </c>
+      <c r="N8">
+        <v>1.47</v>
+      </c>
+      <c r="O8">
         <v>2.55</v>
       </c>
-      <c r="H8">
-        <v>3.6</v>
-      </c>
-      <c r="I8">
+      <c r="P8">
+        <v>1.22</v>
+      </c>
+      <c r="Q8">
+        <v>4.05</v>
+      </c>
+      <c r="R8">
+        <v>1.51</v>
+      </c>
+      <c r="S8">
         <v>2.45</v>
       </c>
-      <c r="J8">
-        <v>1.03</v>
-      </c>
-      <c r="K8">
-        <v>11</v>
-      </c>
-      <c r="L8">
-        <v>1.16</v>
-      </c>
-      <c r="M8">
-        <v>4.35</v>
-      </c>
-      <c r="N8">
-        <v>1.52</v>
-      </c>
-      <c r="O8">
-        <v>2.45</v>
-      </c>
-      <c r="P8">
-        <v>1.29</v>
-      </c>
-      <c r="Q8">
-        <v>3.42</v>
-      </c>
-      <c r="R8">
-        <v>1.53</v>
-      </c>
-      <c r="S8">
-        <v>2.4</v>
-      </c>
       <c r="T8">
-        <v>1.38</v>
+        <v>2.54</v>
       </c>
       <c r="U8">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="V8">
-        <v>1.68</v>
+        <v>1.15</v>
       </c>
       <c r="W8">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="X8">
-        <v>0.83</v>
+        <v>2.6</v>
       </c>
       <c r="Y8">
-        <v>1.84</v>
+        <v>1.33</v>
       </c>
       <c r="Z8">
-        <v>1.53</v>
+        <v>1.93</v>
       </c>
       <c r="AA8">
-        <v>3.37</v>
+        <v>3.26</v>
       </c>
       <c r="AB8">
-        <v>1.75</v>
+        <v>3.68</v>
       </c>
       <c r="AC8">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AD8">
-        <v>2.41</v>
+        <v>1.37</v>
       </c>
       <c r="AE8">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1458,13 +1458,13 @@
         <v>63</v>
       </c>
       <c r="G9">
-        <v>1.62</v>
+        <v>1.51</v>
       </c>
       <c r="H9">
-        <v>4.2</v>
+        <v>3.79</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>5.32</v>
       </c>
       <c r="J9">
         <v>1.04</v>
@@ -1479,10 +1479,10 @@
         <v>3.4</v>
       </c>
       <c r="N9">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="O9">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="P9">
         <v>1.4</v>
@@ -1565,13 +1565,13 @@
         <v>64</v>
       </c>
       <c r="G10">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="H10">
-        <v>5.5</v>
+        <v>5.14</v>
       </c>
       <c r="I10">
-        <v>13</v>
+        <v>10.88</v>
       </c>
       <c r="J10">
         <v>1.03</v>
@@ -1586,10 +1586,10 @@
         <v>3.75</v>
       </c>
       <c r="N10">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="O10">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="P10">
         <v>1.36</v>
@@ -1672,13 +1672,13 @@
         <v>65</v>
       </c>
       <c r="G11">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="H11">
-        <v>6.5</v>
+        <v>4.55</v>
       </c>
       <c r="I11">
-        <v>15</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="J11">
         <v>1.02</v>
@@ -1693,10 +1693,10 @@
         <v>6</v>
       </c>
       <c r="N11">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O11">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="P11">
         <v>1.25</v>
@@ -1779,13 +1779,13 @@
         <v>66</v>
       </c>
       <c r="G12">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="H12">
-        <v>3.6</v>
+        <v>3.52</v>
       </c>
       <c r="I12">
-        <v>4.5</v>
+        <v>3.87</v>
       </c>
       <c r="J12">
         <v>1.03</v>
@@ -1800,10 +1800,10 @@
         <v>4</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="O12">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="P12">
         <v>1.36</v>

--- a/Jogos_do_Dia/2023-06-29_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-06-29_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -172,12 +172,12 @@
     <t>Fylkir</t>
   </si>
   <si>
+    <t>Boca Juniors</t>
+  </si>
+  <si>
     <t>Colo-Colo</t>
   </si>
   <si>
-    <t>Boca Juniors</t>
-  </si>
-  <si>
     <t>Palmeiras</t>
   </si>
   <si>
@@ -205,10 +205,10 @@
     <t>Víkingur Reykjavík</t>
   </si>
   <si>
+    <t>Monagas</t>
+  </si>
+  <si>
     <t>Deportivo Pereira</t>
-  </si>
-  <si>
-    <t>Monagas</t>
   </si>
   <si>
     <t>Bolívar</t>
@@ -757,10 +757,10 @@
         <v>1.06</v>
       </c>
       <c r="W2">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="X2">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="Y2">
         <v>1.27</v>
@@ -816,13 +816,13 @@
         <v>57</v>
       </c>
       <c r="G3">
-        <v>3.21</v>
+        <v>2.57</v>
       </c>
       <c r="H3">
-        <v>3.52</v>
+        <v>2.87</v>
       </c>
       <c r="I3">
-        <v>2.08</v>
+        <v>2.7</v>
       </c>
       <c r="J3">
         <v>1.03</v>
@@ -837,10 +837,10 @@
         <v>4.3</v>
       </c>
       <c r="N3">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="O3">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P3">
         <v>1.3</v>
@@ -864,10 +864,10 @@
         <v>1.33</v>
       </c>
       <c r="W3">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="X3">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="Y3">
         <v>1.81</v>
@@ -923,13 +923,13 @@
         <v>58</v>
       </c>
       <c r="G4">
-        <v>1.38</v>
+        <v>1.67</v>
       </c>
       <c r="H4">
-        <v>5.04</v>
+        <v>4.31</v>
       </c>
       <c r="I4">
-        <v>7.56</v>
+        <v>3.61</v>
       </c>
       <c r="J4">
         <v>1.02</v>
@@ -944,10 +944,10 @@
         <v>4.65</v>
       </c>
       <c r="N4">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="O4">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="P4">
         <v>1.29</v>
@@ -971,10 +971,10 @@
         <v>2.54</v>
       </c>
       <c r="W4">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="X4">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="Y4">
         <v>2.05</v>
@@ -1030,13 +1030,13 @@
         <v>59</v>
       </c>
       <c r="G5">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="H5">
-        <v>2.75</v>
+        <v>2.27</v>
       </c>
       <c r="I5">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="J5">
         <v>1.07</v>
@@ -1045,10 +1045,10 @@
         <v>6.15</v>
       </c>
       <c r="L5">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="M5">
-        <v>2.42</v>
+        <v>2.25</v>
       </c>
       <c r="N5">
         <v>2.26</v>
@@ -1081,7 +1081,7 @@
         <v>1.13</v>
       </c>
       <c r="X5">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Y5">
         <v>1.31</v>
@@ -1137,13 +1137,13 @@
         <v>60</v>
       </c>
       <c r="G6">
-        <v>5.75</v>
+        <v>5.8</v>
       </c>
       <c r="H6">
         <v>3.8</v>
       </c>
       <c r="I6">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="J6">
         <v>1.02</v>
@@ -1158,10 +1158,10 @@
         <v>3.2</v>
       </c>
       <c r="N6">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="O6">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="P6">
         <v>1.4</v>
@@ -1244,13 +1244,13 @@
         <v>61</v>
       </c>
       <c r="G7">
-        <v>2.55</v>
+        <v>2.51</v>
       </c>
       <c r="H7">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I7">
-        <v>2.43</v>
+        <v>2.31</v>
       </c>
       <c r="J7">
         <v>1.03</v>
@@ -1265,10 +1265,10 @@
         <v>4.35</v>
       </c>
       <c r="N7">
-        <v>1.61</v>
+        <v>1.43</v>
       </c>
       <c r="O7">
-        <v>2.2</v>
+        <v>2.44</v>
       </c>
       <c r="P7">
         <v>1.29</v>
@@ -1351,13 +1351,13 @@
         <v>62</v>
       </c>
       <c r="G8">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="H8">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="I8">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="J8">
         <v>1.01</v>
@@ -1372,10 +1372,10 @@
         <v>5.5</v>
       </c>
       <c r="N8">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="O8">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="P8">
         <v>1.22</v>
@@ -1458,76 +1458,76 @@
         <v>63</v>
       </c>
       <c r="G9">
-        <v>1.51</v>
+        <v>1.24</v>
       </c>
       <c r="H9">
-        <v>3.79</v>
+        <v>6</v>
       </c>
       <c r="I9">
-        <v>5.32</v>
+        <v>14</v>
       </c>
       <c r="J9">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K9">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L9">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="M9">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N9">
-        <v>1.92</v>
+        <v>1.62</v>
       </c>
       <c r="O9">
-        <v>1.78</v>
+        <v>2.07</v>
       </c>
       <c r="P9">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q9">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R9">
+        <v>2.5</v>
+      </c>
+      <c r="S9">
+        <v>1.5</v>
+      </c>
+      <c r="T9">
+        <v>1.05</v>
+      </c>
+      <c r="U9">
+        <v>1.14</v>
+      </c>
+      <c r="V9">
+        <v>3.7</v>
+      </c>
+      <c r="W9">
         <v>2</v>
       </c>
-      <c r="S9">
-        <v>1.75</v>
-      </c>
-      <c r="T9">
-        <v>1.15</v>
-      </c>
-      <c r="U9">
-        <v>1.24</v>
-      </c>
-      <c r="V9">
-        <v>2.25</v>
-      </c>
-      <c r="W9">
+      <c r="X9">
         <v>1</v>
       </c>
-      <c r="X9">
-        <v>1.4</v>
-      </c>
       <c r="Y9">
-        <v>2.08</v>
+        <v>1.67</v>
       </c>
       <c r="Z9">
-        <v>1.36</v>
+        <v>1.21</v>
       </c>
       <c r="AA9">
-        <v>3.44</v>
+        <v>2.88</v>
       </c>
       <c r="AB9">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="AC9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD9">
-        <v>3.88</v>
+        <v>4.86</v>
       </c>
       <c r="AE9">
         <v>1.27</v>
@@ -1539,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="AH9">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="AI9">
         <v>3.28</v>
@@ -1565,76 +1565,76 @@
         <v>64</v>
       </c>
       <c r="G10">
-        <v>1.21</v>
+        <v>1.57</v>
       </c>
       <c r="H10">
-        <v>5.14</v>
+        <v>4.1</v>
       </c>
       <c r="I10">
-        <v>10.88</v>
+        <v>6</v>
       </c>
       <c r="J10">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K10">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L10">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="M10">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N10">
-        <v>1.77</v>
+        <v>1.9</v>
       </c>
       <c r="O10">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="P10">
+        <v>1.4</v>
+      </c>
+      <c r="Q10">
+        <v>2.75</v>
+      </c>
+      <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <v>1.75</v>
+      </c>
+      <c r="T10">
+        <v>1.15</v>
+      </c>
+      <c r="U10">
+        <v>1.24</v>
+      </c>
+      <c r="V10">
+        <v>2.25</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>1.4</v>
+      </c>
+      <c r="Y10">
+        <v>2.08</v>
+      </c>
+      <c r="Z10">
         <v>1.36</v>
       </c>
-      <c r="Q10">
-        <v>3</v>
-      </c>
-      <c r="R10">
-        <v>2.5</v>
-      </c>
-      <c r="S10">
-        <v>1.5</v>
-      </c>
-      <c r="T10">
-        <v>1.05</v>
-      </c>
-      <c r="U10">
-        <v>1.14</v>
-      </c>
-      <c r="V10">
-        <v>3.7</v>
-      </c>
-      <c r="W10">
-        <v>2</v>
-      </c>
-      <c r="X10">
-        <v>1</v>
-      </c>
-      <c r="Y10">
-        <v>1.67</v>
-      </c>
-      <c r="Z10">
-        <v>1.21</v>
-      </c>
       <c r="AA10">
-        <v>2.88</v>
+        <v>3.44</v>
       </c>
       <c r="AB10">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="AC10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD10">
-        <v>4.86</v>
+        <v>3.88</v>
       </c>
       <c r="AE10">
         <v>1.27</v>
@@ -1646,7 +1646,7 @@
         <v>2</v>
       </c>
       <c r="AH10">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="AI10">
         <v>3.28</v>
@@ -1672,13 +1672,13 @@
         <v>65</v>
       </c>
       <c r="G11">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H11">
-        <v>4.55</v>
+        <v>5</v>
       </c>
       <c r="I11">
-        <v>8.109999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J11">
         <v>1.02</v>
@@ -1693,10 +1693,10 @@
         <v>6</v>
       </c>
       <c r="N11">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O11">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="P11">
         <v>1.25</v>
@@ -1779,13 +1779,13 @@
         <v>66</v>
       </c>
       <c r="G12">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="H12">
-        <v>3.52</v>
+        <v>3.8</v>
       </c>
       <c r="I12">
-        <v>3.87</v>
+        <v>4.2</v>
       </c>
       <c r="J12">
         <v>1.03</v>
@@ -1800,10 +1800,10 @@
         <v>4</v>
       </c>
       <c r="N12">
-        <v>1.81</v>
+        <v>2.03</v>
       </c>
       <c r="O12">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="P12">
         <v>1.36</v>
